--- a/育肥牛.xlsx
+++ b/育肥牛.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,9 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>供应商名称</t>
+  </si>
+  <si>
+    <t>总计</t>
   </si>
   <si>
     <t>高海霞</t>
@@ -230,12 +235,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -580,7 +591,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,16 +615,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -622,19 +633,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,10 +651,10 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,10 +663,10 @@
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,10 +675,10 @@
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,10 +687,10 @@
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,16 +699,19 @@
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -708,26 +719,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -784,6 +795,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="00FFFF00"/>
       <color rgb="00000000"/>
     </mruColors>
   </colors>
@@ -1045,289 +1057,355 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G19" sqref="E4 G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="51" style="1" customWidth="1"/>
-    <col min="2" max="4" width="17.8571428571429" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.4285714285714" style="2" customWidth="1"/>
-    <col min="6" max="8" width="17.8571428571429" style="2" customWidth="1"/>
+    <col min="1" max="1" width="47.125" customWidth="1"/>
+    <col min="2" max="8" width="14.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="3">
         <v>45536</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>45566</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>45597</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>45627</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>45658</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>45689</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="3">
         <v>45717</v>
       </c>
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
         <v>978488</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>395870</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>417798</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5">
         <v>1248466</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>927839</v>
       </c>
+      <c r="I2" s="7">
+        <v>3968461</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
+    <row r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
         <v>1198200</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>2542372</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>3381688</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>6721024</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>1280760</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5">
         <v>841200</v>
       </c>
+      <c r="I3" s="7">
+        <v>15965244</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
         <v>8925635</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>7682480</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>7307664</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>9920150</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>7628270</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>5028447</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>9433435</v>
       </c>
+      <c r="I4" s="5">
+        <v>55926081</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6">
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
         <v>9589882</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>4835063</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>4182031</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>2000699</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>1499104</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5">
+        <v>22106779</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
+    <row r="6" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
         <v>295190</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
         <v>90049</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>193458</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>171978</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5">
         <v>316785</v>
       </c>
+      <c r="I6" s="5">
+        <v>1067460</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6">
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
         <v>65000</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>95000</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>94500</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>93000</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>30000</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>25100</v>
       </c>
+      <c r="I7" s="5">
+        <v>402600</v>
+      </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6">
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
         <v>140018</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5">
         <v>612483</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>766418</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
         <v>44032</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>643249</v>
       </c>
+      <c r="I8" s="5">
+        <v>2206200</v>
+      </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
+    <row r="9" spans="1:9">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5">
         <v>199940</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
         <v>99972</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>199951</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>199941</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5">
         <v>99938</v>
       </c>
+      <c r="I9" s="5">
+        <v>799742</v>
+      </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6">
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5">
         <v>1711340</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>1020000</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>720000</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>1700000</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>768690</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>1350000</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>1220000</v>
       </c>
+      <c r="I10" s="5">
+        <v>8490030</v>
+      </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6">
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5">
         <v>3588221</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>1678898</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>10608926</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>2819141</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>4418434</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>6924447</v>
+      </c>
+      <c r="I11" s="5">
+        <v>30038067</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="7"/>
+      <c r="A13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/育肥牛.xlsx
+++ b/育肥牛.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25800" windowHeight="12960"/>
+    <workbookView windowWidth="30240" windowHeight="13100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>供应商名称</t>
-  </si>
-  <si>
-    <t>总计</t>
   </si>
   <si>
     <t>高海霞</t>
@@ -88,7 +85,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -235,18 +231,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -591,7 +581,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,16 +605,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -633,16 +623,19 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,10 +644,10 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,10 +656,10 @@
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,10 +668,10 @@
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,10 +680,10 @@
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,10 +692,10 @@
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,11 +704,8 @@
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,17 +718,11 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1057,20 +1041,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="E4 G19"/>
+      <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="47.125" customWidth="1"/>
     <col min="2" max="8" width="14.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1095,279 +1078,246 @@
       <c r="H1" s="3">
         <v>45717</v>
       </c>
-      <c r="I1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="4">
+        <v>978488</v>
+      </c>
+      <c r="C2" s="4">
+        <v>395870</v>
+      </c>
+      <c r="D2" s="4">
+        <v>417798</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4">
+        <v>1248466</v>
+      </c>
+      <c r="H2" s="4">
+        <v>927839</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
-        <v>978488</v>
-      </c>
-      <c r="C2" s="5">
-        <v>395870</v>
-      </c>
-      <c r="D2" s="5">
-        <v>417798</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5">
-        <v>1248466</v>
-      </c>
-      <c r="H2" s="5">
-        <v>927839</v>
-      </c>
-      <c r="I2" s="7">
-        <v>3968461</v>
+      <c r="B3" s="4">
+        <v>1198200</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2542372</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3381688</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6721024</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1280760</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4">
+        <v>841200</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
-        <v>1198200</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2542372</v>
-      </c>
-      <c r="D3" s="5">
-        <v>3381688</v>
-      </c>
-      <c r="E3" s="5">
-        <v>6721024</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1280760</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5">
-        <v>841200</v>
-      </c>
-      <c r="I3" s="7">
-        <v>15965244</v>
+      <c r="B4" s="4">
+        <v>8925635</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7682480</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7307664</v>
+      </c>
+      <c r="E4" s="4">
+        <v>9920150</v>
+      </c>
+      <c r="F4" s="4">
+        <v>7628270</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5028447</v>
+      </c>
+      <c r="H4" s="4">
+        <v>9433435</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
-        <v>8925635</v>
-      </c>
-      <c r="C4" s="5">
-        <v>7682480</v>
-      </c>
-      <c r="D4" s="5">
-        <v>7307664</v>
-      </c>
-      <c r="E4" s="5">
-        <v>9920150</v>
-      </c>
-      <c r="F4" s="5">
-        <v>7628270</v>
-      </c>
-      <c r="G4" s="5">
-        <v>5028447</v>
-      </c>
-      <c r="H4" s="5">
-        <v>9433435</v>
-      </c>
-      <c r="I4" s="5">
-        <v>55926081</v>
-      </c>
+      <c r="B5" s="4">
+        <v>9589882</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4835063</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4182031</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2000699</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1499104</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
-        <v>9589882</v>
-      </c>
-      <c r="C5" s="5">
-        <v>4835063</v>
-      </c>
-      <c r="D5" s="5">
-        <v>4182031</v>
-      </c>
-      <c r="E5" s="5">
-        <v>2000699</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1499104</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5">
-        <v>22106779</v>
+      <c r="B6" s="4">
+        <v>295190</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>90049</v>
+      </c>
+      <c r="E6" s="4">
+        <v>193458</v>
+      </c>
+      <c r="F6" s="4">
+        <v>171978</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
+        <v>316785</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
-        <v>295190</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
-        <v>90049</v>
-      </c>
-      <c r="E6" s="5">
-        <v>193458</v>
-      </c>
-      <c r="F6" s="5">
-        <v>171978</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5">
-        <v>316785</v>
-      </c>
-      <c r="I6" s="5">
-        <v>1067460</v>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4">
+        <v>65000</v>
+      </c>
+      <c r="D7" s="4">
+        <v>95000</v>
+      </c>
+      <c r="E7" s="4">
+        <v>94500</v>
+      </c>
+      <c r="F7" s="4">
+        <v>93000</v>
+      </c>
+      <c r="G7" s="4">
+        <v>30000</v>
+      </c>
+      <c r="H7" s="4">
+        <v>25100</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5">
-        <v>65000</v>
-      </c>
-      <c r="D7" s="5">
-        <v>95000</v>
-      </c>
-      <c r="E7" s="5">
-        <v>94500</v>
-      </c>
-      <c r="F7" s="5">
-        <v>93000</v>
-      </c>
-      <c r="G7" s="5">
-        <v>30000</v>
-      </c>
-      <c r="H7" s="5">
-        <v>25100</v>
-      </c>
-      <c r="I7" s="5">
-        <v>402600</v>
+      <c r="B8" s="4">
+        <v>140018</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
+        <v>612483</v>
+      </c>
+      <c r="E8" s="4">
+        <v>766418</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
+        <v>44032</v>
+      </c>
+      <c r="H8" s="4">
+        <v>643249</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5">
-        <v>140018</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5">
-        <v>612483</v>
-      </c>
-      <c r="E8" s="5">
-        <v>766418</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5">
-        <v>44032</v>
-      </c>
-      <c r="H8" s="5">
-        <v>643249</v>
-      </c>
-      <c r="I8" s="5">
-        <v>2206200</v>
+      <c r="B9" s="4">
+        <v>199940</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
+        <v>99972</v>
+      </c>
+      <c r="E9" s="4">
+        <v>199951</v>
+      </c>
+      <c r="F9" s="4">
+        <v>199941</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
+        <v>99938</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5">
-        <v>199940</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5">
-        <v>99972</v>
-      </c>
-      <c r="E9" s="5">
-        <v>199951</v>
-      </c>
-      <c r="F9" s="5">
-        <v>199941</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5">
-        <v>99938</v>
-      </c>
-      <c r="I9" s="5">
-        <v>799742</v>
+      <c r="B10" s="4">
+        <v>1711340</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1020000</v>
+      </c>
+      <c r="D10" s="4">
+        <v>720000</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1700000</v>
+      </c>
+      <c r="F10" s="4">
+        <v>768690</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1350000</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1220000</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
-        <v>1711340</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1020000</v>
-      </c>
-      <c r="D10" s="5">
-        <v>720000</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1700000</v>
-      </c>
-      <c r="F10" s="5">
-        <v>768690</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1350000</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1220000</v>
-      </c>
-      <c r="I10" s="5">
-        <v>8490030</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4">
         <v>3588221</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>1678898</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>10608926</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>2819141</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>4418434</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>6924447</v>
-      </c>
-      <c r="I11" s="5">
-        <v>30038067</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="6"/>
+      <c r="A12" s="5"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="6"/>
+      <c r="A13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/育肥牛.xlsx
+++ b/育肥牛.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13100"/>
+    <workbookView windowWidth="30240" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>供应商名称</t>
   </si>
@@ -75,11 +75,18 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -575,150 +582,151 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1043,281 +1051,281 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="47.125" customWidth="1"/>
-    <col min="2" max="8" width="14.75" style="1" customWidth="1"/>
+    <col min="2" max="8" width="14.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="4">
         <v>45536</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="4">
         <v>45566</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="4">
         <v>45597</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="4">
         <v>45627</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="4">
         <v>45658</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="4">
         <v>45689</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="4">
         <v>45717</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>978488</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>395870</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>417798</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5">
         <v>1248466</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>927839</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>1198200</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>2542372</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>3381688</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>6721024</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>1280760</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5">
         <v>841200</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>8925635</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>7682480</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>7307664</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>9920150</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>7628270</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>5028447</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>9433435</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>9589882</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>4835063</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>4182031</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>2000699</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>1499104</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>295190</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
         <v>90049</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>193458</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>171978</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5">
         <v>316785</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
         <v>65000</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>95000</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>94500</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>93000</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>30000</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>25100</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>140018</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5">
         <v>612483</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>766418</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
         <v>44032</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>643249</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>199940</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
         <v>99972</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>199951</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>199941</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5">
         <v>99938</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>1711340</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>1020000</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>720000</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>1700000</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>768690</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>1350000</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>1220000</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5">
         <v>3588221</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>1678898</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>10608926</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>2819141</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>4418434</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>6924447</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="5"/>
+      <c r="A12" s="6"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="5"/>
+      <c r="A13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1329,14 +1337,219 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="50.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="str">
+        <f>Sheet1!A2</f>
+        <v>高海霞</v>
+      </c>
+      <c r="B1">
+        <f>SUM(Sheet1!B2:H2)</f>
+        <v>3968461</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3968461</v>
+      </c>
+      <c r="F1"/>
+      <c r="G1">
+        <f t="shared" ref="G1:G10" si="0">B1-E1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="str">
+        <f>Sheet1!A3</f>
+        <v>李阳</v>
+      </c>
+      <c r="B2">
+        <f>SUM(Sheet1!B3:H3)</f>
+        <v>15965244</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>15965244</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="str">
+        <f>Sheet1!A4</f>
+        <v>林永如</v>
+      </c>
+      <c r="B3">
+        <f>SUM(Sheet1!B4:H4)</f>
+        <v>55926081</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>55926081</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="str">
+        <f>Sheet1!A5</f>
+        <v>卢燕芬</v>
+      </c>
+      <c r="B4">
+        <f>SUM(Sheet1!B5:H5)</f>
+        <v>22106779</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>22106779</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="str">
+        <f>Sheet1!A6</f>
+        <v>深圳市宝安区新桥街道秋之源牛羊肉档</v>
+      </c>
+      <c r="B5">
+        <f>SUM(Sheet1!B6:H6)</f>
+        <v>1067460</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1067460</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="str">
+        <f>Sheet1!A7</f>
+        <v>深圳市诚嘉食品有限公司</v>
+      </c>
+      <c r="B6">
+        <f>SUM(Sheet1!B7:H7)</f>
+        <v>402600</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>402600</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="str">
+        <f>Sheet1!A8</f>
+        <v>深圳市昊蓬升牛羊肉批发有限公司</v>
+      </c>
+      <c r="B7">
+        <f>SUM(Sheet1!B8:H8)</f>
+        <v>2206200</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2206200</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="str">
+        <f>Sheet1!A9</f>
+        <v>深圳市罗湖区布吉农产品批发中心刘茂钟牛肉档</v>
+      </c>
+      <c r="B8">
+        <f>SUM(Sheet1!B9:H9)</f>
+        <v>799742</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>799742</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="str">
+        <f>Sheet1!A10</f>
+        <v>深圳市腾越农产品有限公司</v>
+      </c>
+      <c r="B9">
+        <f>SUM(Sheet1!B10:H10)</f>
+        <v>8490030</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8490030</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="str">
+        <f>Sheet1!A11</f>
+        <v>中山市沙溪镇共创牛肉档</v>
+      </c>
+      <c r="B10">
+        <f>SUM(Sheet1!B11:H11)</f>
+        <v>30038067</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>30038067</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
